--- a/learners.xlsx
+++ b/learners.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6090"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="2835" windowHeight="6735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -28,43 +30,35 @@
     <t>Email</t>
   </si>
   <si>
-    <t>9876543210</t>
-  </si>
-  <si>
-    <t>Ted Mosby</t>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>akshay@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinod</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>vaishnavipatil10march@gmail.com</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>L&amp;D</t>
-  </si>
-  <si>
-    <t>vaishnavi10march2000@gmail.com</t>
+    <t>vinod@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -75,17 +69,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,12 +88,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,55 +398,54 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>7656787890</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>7869352434</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -468,4 +455,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/learners.xlsx
+++ b/learners.xlsx
@@ -90,9 +90,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,7 +399,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,44 +408,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>7656787890</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7869352434</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -454,6 +455,7 @@
     <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
